--- a/DRL_Automated_Trading/results14/RWE.DE.xlsx
+++ b/DRL_Automated_Trading/results14/RWE.DE.xlsx
@@ -1164,7 +1164,7 @@
         <v>44134</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="n">
         <v>969342.2527258903</v>
@@ -2092,7 +2092,7 @@
         <v>44175</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D52" t="n">
         <v>940327.3651722219</v>
@@ -2220,25 +2220,25 @@
         <v>44181</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>9469.714561200492</v>
+        <v>934886.368988403</v>
       </c>
       <c r="E56" t="n">
-        <v>28169</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>934261.5438908052</v>
+        <v>934886.368988403</v>
       </c>
       <c r="G56" t="n">
         <v>32.83012635626415</v>
       </c>
       <c r="H56" t="n">
-        <v>624.8250975977629</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>925416.6544272025</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>58.78266204923936</v>
+        <v>9473.347710022274</v>
       </c>
       <c r="E57" t="n">
-        <v>28452</v>
+        <v>27945</v>
       </c>
       <c r="F57" t="n">
-        <v>941625.2102777464</v>
+        <v>934261.5460693873</v>
       </c>
       <c r="G57" t="n">
         <v>33.09315435173967</v>
       </c>
       <c r="H57" t="n">
-        <v>45.5692176089254</v>
+        <v>624.8229190156192</v>
       </c>
       <c r="I57" t="n">
-        <v>934827.5863263538</v>
+        <v>925413.0212783808</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>12.81434401350651</v>
+        <v>84.66951448085599</v>
       </c>
       <c r="E58" t="n">
-        <v>28453</v>
+        <v>28229</v>
       </c>
       <c r="F58" t="n">
-        <v>936068.6574147203</v>
+        <v>928771.2893451834</v>
       </c>
       <c r="G58" t="n">
         <v>32.89831803573285</v>
       </c>
       <c r="H58" t="n">
-        <v>13.07</v>
+        <v>45.55587339328888</v>
       </c>
       <c r="I58" t="n">
-        <v>934873.5546443895</v>
+        <v>934801.6994739221</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2319,25 +2319,25 @@
         <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>904826.4137453061</v>
+        <v>897774.4536742914</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>904826.4137453061</v>
+        <v>897774.4536742914</v>
       </c>
       <c r="G59" t="n">
         <v>31.82183971758983</v>
       </c>
       <c r="H59" t="n">
-        <v>613.20608329075</v>
+        <v>608.929228032706</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-30059.95524309692</v>
+        <v>-37111.91531411163</v>
       </c>
     </row>
     <row r="60">
@@ -2351,22 +2351,22 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>9167.404843120599</v>
+        <v>9088.385311798515</v>
       </c>
       <c r="E60" t="n">
-        <v>27871</v>
+        <v>27654</v>
       </c>
       <c r="F60" t="n">
-        <v>904219.4325286947</v>
+        <v>897171.6537132505</v>
       </c>
       <c r="G60" t="n">
         <v>32.1140980835124</v>
       </c>
       <c r="H60" t="n">
-        <v>606.9812166113445</v>
+        <v>602.7999610408713</v>
       </c>
       <c r="I60" t="n">
-        <v>895659.0089021855</v>
+        <v>888686.0683624928</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2383,25 +2383,25 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>921114.6690422258</v>
+        <v>913934.8014795736</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>921114.6690422258</v>
+        <v>913934.8014795736</v>
       </c>
       <c r="G61" t="n">
         <v>32.74244745617078</v>
       </c>
       <c r="H61" t="n">
-        <v>617.4888518305615</v>
+        <v>613.2257851717681</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>16288.25529691973</v>
+        <v>16160.34780528222</v>
       </c>
     </row>
     <row r="62">
@@ -2415,13 +2415,13 @@
         <v>-1</v>
       </c>
       <c r="D62" t="n">
-        <v>921114.6690422258</v>
+        <v>913934.8014795736</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>921114.6690422258</v>
+        <v>913934.8014795736</v>
       </c>
       <c r="G62" t="n">
         <v>33.61921857277856</v>
@@ -2447,22 +2447,22 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>9319.488405875152</v>
+        <v>9264.347445483225</v>
       </c>
       <c r="E63" t="n">
-        <v>26617</v>
+        <v>26409</v>
       </c>
       <c r="F63" t="n">
-        <v>920498.0119281125</v>
+        <v>913322.416638058</v>
       </c>
       <c r="G63" t="n">
         <v>34.23295350799253</v>
       </c>
       <c r="H63" t="n">
-        <v>616.6571141133425</v>
+        <v>612.384841515545</v>
       </c>
       <c r="I63" t="n">
-        <v>911795.1806363506</v>
+        <v>904670.4540340904</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G64" t="n">
         <v>33.87737595624721</v>
       </c>
       <c r="H64" t="n">
-        <v>610.9784694964592</v>
+        <v>606.7505729771195</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-10692.04327841522</v>
+        <v>-10609.58297853498</v>
       </c>
     </row>
     <row r="65">
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G65" t="n">
         <v>34.57392163696</v>
@@ -2543,13 +2543,13 @@
         <v>-1</v>
       </c>
       <c r="D66" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G66" t="n">
         <v>34.48137298908994</v>
@@ -2575,13 +2575,13 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G67" t="n">
         <v>35.01230531832869</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G68" t="n">
         <v>36.02546122910372</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G69" t="n">
         <v>37.04348789610345</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G70" t="n">
         <v>37.16038766101441</v>
@@ -2703,13 +2703,13 @@
         <v>-1</v>
       </c>
       <c r="D71" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G71" t="n">
         <v>36.8730020002133</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G72" t="n">
         <v>36.18620319600502</v>
@@ -2767,13 +2767,13 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G73" t="n">
         <v>37.02400320567113</v>
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G74" t="n">
         <v>36.7901975901798</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G75" t="n">
         <v>36.1082648957868</v>
@@ -2863,13 +2863,13 @@
         <v>-1</v>
       </c>
       <c r="D76" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>910422.6257638106</v>
+        <v>903325.2185010386</v>
       </c>
       <c r="G76" t="n">
         <v>36.36642384655872</v>
@@ -2895,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>9217.355598140171</v>
+        <v>9126.143171238155</v>
       </c>
       <c r="E77" t="n">
-        <v>24695</v>
+        <v>24503</v>
       </c>
       <c r="F77" t="n">
-        <v>909812.3187858979</v>
+        <v>902719.1127193097</v>
       </c>
       <c r="G77" t="n">
         <v>36.46871687336537</v>
       </c>
       <c r="H77" t="n">
-        <v>610.3069779126547</v>
+        <v>606.105781728843</v>
       </c>
       <c r="I77" t="n">
-        <v>901205.2701656704</v>
+        <v>894199.0753298005</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2927,25 +2927,25 @@
         <v>-1</v>
       </c>
       <c r="D78" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="G78" t="n">
         <v>36.61971417578933</v>
       </c>
       <c r="H78" t="n">
-        <v>612.5443049426706</v>
+        <v>608.3257138696197</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2506.027100504492</v>
+        <v>2485.455405695946</v>
       </c>
     </row>
     <row r="79">
@@ -2959,13 +2959,13 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="G79" t="n">
         <v>35.92316879265086</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="G80" t="n">
         <v>35.86472068439455</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="G81" t="n">
         <v>35.72346198190867</v>
@@ -3055,13 +3055,13 @@
         <v>-1</v>
       </c>
       <c r="D82" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="G82" t="n">
         <v>34.43753627855794</v>
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>912928.6528643151</v>
+        <v>905810.6739067346</v>
       </c>
       <c r="G83" t="n">
         <v>33.79457237536225</v>
@@ -3119,22 +3119,22 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>9249.775083910803</v>
+        <v>9170.216182351862</v>
       </c>
       <c r="E84" t="n">
-        <v>26190</v>
+        <v>25986</v>
       </c>
       <c r="F84" t="n">
-        <v>912316.8626117983</v>
+        <v>905203.1041739396</v>
       </c>
       <c r="G84" t="n">
         <v>34.4813702759789</v>
       </c>
       <c r="H84" t="n">
-        <v>611.7902525167326</v>
+        <v>607.5697327949526</v>
       </c>
       <c r="I84" t="n">
-        <v>903678.8777804043</v>
+        <v>896640.4577243828</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3151,22 +3151,22 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>72.97309373423644</v>
+        <v>62.89595635914789</v>
       </c>
       <c r="E85" t="n">
-        <v>26453</v>
+        <v>26247</v>
       </c>
       <c r="F85" t="n">
-        <v>918522.4573808833</v>
+        <v>911360.049930759</v>
       </c>
       <c r="G85" t="n">
         <v>34.72005006188898</v>
       </c>
       <c r="H85" t="n">
-        <v>45.42882389976609</v>
+        <v>45.38715983969182</v>
       </c>
       <c r="I85" t="n">
-        <v>912855.6797705808</v>
+        <v>905747.7779503755</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3183,25 +3183,25 @@
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>928718.3368142269</v>
+        <v>921475.9852797544</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>928718.3368142269</v>
+        <v>921475.9852797544</v>
       </c>
       <c r="G86" t="n">
         <v>35.12920566464904</v>
       </c>
       <c r="H86" t="n">
-        <v>627.5137264681766</v>
+        <v>623.1717566480261</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>15789.68394991185</v>
+        <v>15665.31137301982</v>
       </c>
     </row>
     <row r="87">
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>9415.706164327908</v>
+        <v>9344.597880590261</v>
       </c>
       <c r="E87" t="n">
-        <v>25893</v>
+        <v>25691</v>
       </c>
       <c r="F87" t="n">
-        <v>928097.1779311668</v>
+        <v>920859.1265625452</v>
       </c>
       <c r="G87" t="n">
         <v>35.47991626180199</v>
       </c>
       <c r="H87" t="n">
-        <v>621.1588830601033</v>
+        <v>616.8587172091731</v>
       </c>
       <c r="I87" t="n">
-        <v>919302.630649899</v>
+        <v>912131.3873991641</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>9415.706164327908</v>
+        <v>9344.597880590261</v>
       </c>
       <c r="E88" t="n">
-        <v>25893</v>
+        <v>25691</v>
       </c>
       <c r="F88" t="n">
-        <v>925574.7060071748</v>
+        <v>918356.3332902601</v>
       </c>
       <c r="G88" t="n">
         <v>35.38249719394612</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>919302.630649899</v>
+        <v>912131.3873991641</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3279,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>68.59761693060344</v>
+        <v>69.35928336590763</v>
       </c>
       <c r="E89" t="n">
-        <v>26152</v>
+        <v>25948</v>
       </c>
       <c r="F89" t="n">
-        <v>939276.541312236</v>
+        <v>931950.9638644987</v>
       </c>
       <c r="G89" t="n">
         <v>35.91342703025793</v>
       </c>
       <c r="H89" t="n">
-        <v>45.53094656050209</v>
+        <v>45.48785044806578</v>
       </c>
       <c r="I89" t="n">
-        <v>928649.7391972963</v>
+        <v>921406.6259963885</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>20.62734284386453</v>
+        <v>21.38900927916872</v>
       </c>
       <c r="E90" t="n">
-        <v>26153</v>
+        <v>25949</v>
       </c>
       <c r="F90" t="n">
-        <v>912767.4955333266</v>
+        <v>905648.6012860672</v>
       </c>
       <c r="G90" t="n">
         <v>34.90027408673891</v>
@@ -3326,7 +3326,7 @@
         <v>13.07</v>
       </c>
       <c r="I90" t="n">
-        <v>928697.709471383</v>
+        <v>921454.5962704752</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>20.62734284386453</v>
+        <v>21.38900927916872</v>
       </c>
       <c r="E91" t="n">
-        <v>26153</v>
+        <v>25949</v>
       </c>
       <c r="F91" t="n">
-        <v>878499.6425027368</v>
+        <v>871648.0461569893</v>
       </c>
       <c r="G91" t="n">
         <v>33.5899902557983</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>928697.709471383</v>
+        <v>921454.5962704752</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>868608.7115317556</v>
+        <v>861833.7213160153</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>868608.7115317556</v>
+        <v>861833.7213160153</v>
       </c>
       <c r="G92" t="n">
         <v>33.23441065705885</v>
       </c>
       <c r="H92" t="n">
-        <v>591.4577251484361</v>
+        <v>587.3898332840122</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-60109.6252824713</v>
+        <v>-59642.26396373904</v>
       </c>
     </row>
     <row r="93">
@@ -3407,22 +3407,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>8790.552245354222</v>
+        <v>8725.630714163712</v>
       </c>
       <c r="E93" t="n">
-        <v>26010</v>
+        <v>25807</v>
       </c>
       <c r="F93" t="n">
-        <v>868023.2219299448</v>
+        <v>861252.2553412392</v>
       </c>
       <c r="G93" t="n">
         <v>33.03470471682394</v>
       </c>
       <c r="H93" t="n">
-        <v>585.4896018107544</v>
+        <v>581.4659747762453</v>
       </c>
       <c r="I93" t="n">
-        <v>859818.1592864015</v>
+        <v>853108.0906018516</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3439,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>66.23539978345906</v>
+        <v>67.35468110679477</v>
       </c>
       <c r="E94" t="n">
-        <v>26273</v>
+        <v>26068</v>
       </c>
       <c r="F94" t="n">
-        <v>867091.1540367405</v>
+        <v>860327.1491099196</v>
       </c>
       <c r="G94" t="n">
         <v>33.00060589338702</v>
       </c>
       <c r="H94" t="n">
-        <v>45.15749560997647</v>
+        <v>45.11789488290441</v>
       </c>
       <c r="I94" t="n">
-        <v>868542.4761319723</v>
+        <v>861766.3666349085</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>66.23539978345906</v>
+        <v>67.35468110679477</v>
       </c>
       <c r="E95" t="n">
-        <v>26273</v>
+        <v>26068</v>
       </c>
       <c r="F95" t="n">
-        <v>872722.0662456097</v>
+        <v>865914.1250723448</v>
       </c>
       <c r="G95" t="n">
         <v>33.21492904677145</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>868542.4761319723</v>
+        <v>861766.3666349085</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>861513.0043317345</v>
+        <v>854791.9781640779</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>861513.0043317345</v>
+        <v>854791.9781640779</v>
       </c>
       <c r="G96" t="n">
         <v>32.81063979353436</v>
       </c>
       <c r="H96" t="n">
-        <v>587.1703635773171</v>
+        <v>583.1346548827123</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-7095.70720002125</v>
+        <v>-7041.743151937379</v>
       </c>
     </row>
     <row r="97">
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>861513.0043317345</v>
+        <v>854791.9781640779</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>861513.0043317345</v>
+        <v>854791.9781640779</v>
       </c>
       <c r="G97" t="n">
         <v>32.25048137503036</v>
@@ -3567,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>8714.793143001316</v>
+        <v>8638.983652398976</v>
       </c>
       <c r="E98" t="n">
-        <v>26691</v>
+        <v>26483</v>
       </c>
       <c r="F98" t="n">
-        <v>860931.7241731164</v>
+        <v>854214.6827446225</v>
       </c>
       <c r="G98" t="n">
         <v>31.92899970140179</v>
       </c>
       <c r="H98" t="n">
-        <v>581.2801586180691</v>
+        <v>577.2954194553341</v>
       </c>
       <c r="I98" t="n">
-        <v>852798.2111887332</v>
+        <v>846152.9945116789</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>78.0838571232452</v>
+        <v>64.79625223638314</v>
       </c>
       <c r="E99" t="n">
-        <v>26966</v>
+        <v>26756</v>
       </c>
       <c r="F99" t="n">
-        <v>842555.1826995926</v>
+        <v>835981.0336114705</v>
       </c>
       <c r="G99" t="n">
         <v>31.24219753921491</v>
       </c>
       <c r="H99" t="n">
-        <v>45.10496259397046</v>
+        <v>45.06747195692341</v>
       </c>
       <c r="I99" t="n">
-        <v>861434.9204746113</v>
+        <v>854727.1819118415</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3631,25 +3631,25 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>842636.1408756162</v>
+        <v>836060.8165773419</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>842636.1408756162</v>
+        <v>836060.8165773419</v>
       </c>
       <c r="G100" t="n">
         <v>31.2665537102612</v>
       </c>
       <c r="H100" t="n">
-        <v>575.8303324105422</v>
+        <v>571.8907466430492</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-18876.86345611839</v>
+        <v>-18731.16158673598</v>
       </c>
     </row>
     <row r="101">
@@ -3663,13 +3663,13 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>842636.1408756162</v>
+        <v>836060.8165773419</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>842636.1408756162</v>
+        <v>836060.8165773419</v>
       </c>
       <c r="G101" t="n">
         <v>30.69665244142829</v>
@@ -3695,22 +3695,22 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>8528.54172183479</v>
+        <v>8444.381304326382</v>
       </c>
       <c r="E102" t="n">
-        <v>27111</v>
+        <v>26900</v>
       </c>
       <c r="F102" t="n">
-        <v>842066.0683596336</v>
+        <v>835494.6364242699</v>
       </c>
       <c r="G102" t="n">
         <v>30.74536264386407</v>
       </c>
       <c r="H102" t="n">
-        <v>570.0725159826793</v>
+        <v>566.1801530719662</v>
       </c>
       <c r="I102" t="n">
-        <v>834107.5991537814</v>
+        <v>827616.4352730155</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -3727,22 +3727,22 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>52.66956330166092</v>
+        <v>60.53738752270573</v>
       </c>
       <c r="E103" t="n">
-        <v>27386</v>
+        <v>27172</v>
       </c>
       <c r="F103" t="n">
-        <v>839644.0573981944</v>
+        <v>833091.1804259259</v>
       </c>
       <c r="G103" t="n">
         <v>30.65768596490516</v>
       </c>
       <c r="H103" t="n">
-        <v>45.00851818420936</v>
+        <v>44.95333434947253</v>
       </c>
       <c r="I103" t="n">
-        <v>842583.4713123145</v>
+        <v>836000.2791898192</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -3759,25 +3759,25 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>840003.5490750942</v>
+        <v>833447.3163546749</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>840003.5490750942</v>
+        <v>833447.3163546749</v>
       </c>
       <c r="G104" t="n">
         <v>30.69178210029035</v>
       </c>
       <c r="H104" t="n">
-        <v>574.265086759131</v>
+        <v>570.3242619374538</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-2632.591800521943</v>
+        <v>-2613.50022266712</v>
       </c>
     </row>
     <row r="105">
@@ -3791,22 +3791,22 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>8492.560246949211</v>
+        <v>8414.127413519274</v>
       </c>
       <c r="E105" t="n">
-        <v>26954</v>
+        <v>26744</v>
       </c>
       <c r="F105" t="n">
-        <v>839435.0335910877</v>
+        <v>832882.685219991</v>
       </c>
       <c r="G105" t="n">
         <v>30.82816922698444</v>
       </c>
       <c r="H105" t="n">
-        <v>568.5154840064831</v>
+        <v>564.631134683883</v>
       </c>
       <c r="I105" t="n">
-        <v>831510.988828145</v>
+        <v>825033.1889411556</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-1</v>
       </c>
       <c r="D106" t="n">
-        <v>825220.3909822655</v>
+        <v>818778.2446386176</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>825220.3909822655</v>
+        <v>818778.2446386176</v>
       </c>
       <c r="G106" t="n">
         <v>30.32159062207809</v>
       </c>
       <c r="H106" t="n">
-        <v>560.3228921764957</v>
+        <v>556.5023717581139</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>-14783.1580928287</v>
+        <v>-14669.07171605725</v>
       </c>
     </row>
     <row r="107">
@@ -3855,13 +3855,13 @@
         <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>825220.3909822655</v>
+        <v>818778.2446386176</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>825220.3909822655</v>
+        <v>818778.2446386176</v>
       </c>
       <c r="G107" t="n">
         <v>29.74195050286969</v>
@@ -3887,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>8330.607300840295</v>
+        <v>8290.432990880799</v>
       </c>
       <c r="E108" t="n">
-        <v>27304</v>
+        <v>27090</v>
       </c>
       <c r="F108" t="n">
-        <v>824660.6429608695</v>
+        <v>818222.3354971139</v>
       </c>
       <c r="G108" t="n">
         <v>29.89781847568229</v>
       </c>
       <c r="H108" t="n">
-        <v>559.7480213960175</v>
+        <v>555.9091415037399</v>
       </c>
       <c r="I108" t="n">
-        <v>816889.7836814251</v>
+        <v>810487.8116477368</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>66.32386220168213</v>
+        <v>56.72328249734939</v>
       </c>
       <c r="E109" t="n">
-        <v>27573</v>
+        <v>27358</v>
       </c>
       <c r="F109" t="n">
-        <v>842570.285810618</v>
+        <v>835991.274872269</v>
       </c>
       <c r="G109" t="n">
         <v>30.55539701695196</v>
       </c>
       <c r="H109" t="n">
-        <v>44.88164107853605</v>
+        <v>44.86330784032587</v>
       </c>
       <c r="I109" t="n">
-        <v>825154.0671200638</v>
+        <v>818721.5213561202</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>66.32386220168213</v>
+        <v>56.72328249734939</v>
       </c>
       <c r="E110" t="n">
-        <v>27573</v>
+        <v>27358</v>
       </c>
       <c r="F110" t="n">
-        <v>840824.287252849</v>
+        <v>834258.8907086508</v>
       </c>
       <c r="G110" t="n">
         <v>30.49207425345981</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>825154.0671200638</v>
+        <v>818721.5213561202</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>66.32386220168213</v>
+        <v>56.72328249734939</v>
       </c>
       <c r="E111" t="n">
-        <v>27573</v>
+        <v>27358</v>
       </c>
       <c r="F111" t="n">
-        <v>866879.7329156061</v>
+        <v>860111.1694756226</v>
       </c>
       <c r="G111" t="n">
         <v>31.43703655943875</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>825154.0671200638</v>
+        <v>818721.5213561202</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4015,25 +4015,25 @@
         <v>-1</v>
       </c>
       <c r="D112" t="n">
-        <v>865081.6151516129</v>
+        <v>858326.5270704679</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>865081.6151516129</v>
+        <v>858326.5270704679</v>
       </c>
       <c r="G112" t="n">
         <v>31.39319638965083</v>
       </c>
       <c r="H112" t="n">
-        <v>589.3127624311054</v>
+        <v>585.2630400968405</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>39861.22416934744</v>
+        <v>39548.28243185033</v>
       </c>
     </row>
     <row r="113">
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>865081.6151516129</v>
+        <v>858326.5270704679</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>865081.6151516129</v>
+        <v>858326.5270704679</v>
       </c>
       <c r="G113" t="n">
         <v>31.73416386695851</v>
@@ -4079,22 +4079,22 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>8737.440429992897</v>
+        <v>8686.391733495866</v>
       </c>
       <c r="E114" t="n">
-        <v>26950</v>
+        <v>26739</v>
       </c>
       <c r="F114" t="n">
-        <v>864498.2086906565</v>
+        <v>857747.1406211354</v>
       </c>
       <c r="G114" t="n">
         <v>31.75364631764986</v>
       </c>
       <c r="H114" t="n">
-        <v>583.4064609563982</v>
+        <v>579.3864493325838</v>
       </c>
       <c r="I114" t="n">
-        <v>856344.17472162</v>
+        <v>849640.1353369721</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4111,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>8737.440429992897</v>
+        <v>8686.391733495866</v>
       </c>
       <c r="E115" t="n">
-        <v>26950</v>
+        <v>26739</v>
       </c>
       <c r="F115" t="n">
-        <v>865285.853050477</v>
+        <v>858528.6182663019</v>
       </c>
       <c r="G115" t="n">
         <v>31.78287245345025</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>856344.17472162</v>
+        <v>849640.1353369721</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4143,25 +4143,25 @@
         <v>-1</v>
       </c>
       <c r="D116" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G116" t="n">
         <v>31.72929274300586</v>
       </c>
       <c r="H116" t="n">
-        <v>583.0126636544048</v>
+        <v>578.9957351931403</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-1822.747961266432</v>
+        <v>-1809.572416931391</v>
       </c>
     </row>
     <row r="117">
@@ -4175,13 +4175,13 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G117" t="n">
         <v>30.92558724138728</v>
@@ -4207,13 +4207,13 @@
         <v>-1</v>
       </c>
       <c r="D118" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G118" t="n">
         <v>30.55539577734643</v>
@@ -4239,13 +4239,13 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G119" t="n">
         <v>30.74049236928571</v>
@@ -4271,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G120" t="n">
         <v>30.93532938200223</v>
@@ -4303,13 +4303,13 @@
         <v>-1</v>
       </c>
       <c r="D121" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G121" t="n">
         <v>31.39319839217632</v>
@@ -4335,13 +4335,13 @@
         <v>-1</v>
       </c>
       <c r="D122" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G122" t="n">
         <v>31.70493764089718</v>
@@ -4367,13 +4367,13 @@
         <v>-1</v>
       </c>
       <c r="D123" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G123" t="n">
         <v>31.81209770198433</v>
@@ -4399,13 +4399,13 @@
         <v>-1</v>
       </c>
       <c r="D124" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G124" t="n">
         <v>31.7926146428447</v>
@@ -4431,13 +4431,13 @@
         <v>-1</v>
       </c>
       <c r="D125" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>863258.8671903465</v>
+        <v>856516.9546535366</v>
       </c>
       <c r="G125" t="n">
         <v>31.94361372893648</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>8721.869347362939</v>
+        <v>8669.599016588796</v>
       </c>
       <c r="E126" t="n">
-        <v>26951</v>
+        <v>26740</v>
       </c>
       <c r="F126" t="n">
-        <v>862676.5443853237</v>
+        <v>855938.6432270103</v>
       </c>
       <c r="G126" t="n">
         <v>31.68545415895369</v>
       </c>
       <c r="H126" t="n">
-        <v>582.3228050227765</v>
+        <v>578.3114265262529</v>
       </c>
       <c r="I126" t="n">
-        <v>854536.9978429836</v>
+        <v>847847.3556369478</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G127" t="n">
         <v>31.98745126344287</v>
       </c>
       <c r="H127" t="n">
-        <v>587.2062794006292</v>
+        <v>583.1566680706774</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>6969.594878664473</v>
+        <v>6913.934479443822</v>
       </c>
     </row>
     <row r="128">
@@ -4527,13 +4527,13 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G128" t="n">
         <v>33.00060701132216</v>
@@ -4559,13 +4559,13 @@
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G129" t="n">
         <v>33.32696226769713</v>
@@ -4591,13 +4591,13 @@
         <v>-1</v>
       </c>
       <c r="D130" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G130" t="n">
         <v>32.99086632115123</v>
@@ -4623,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G131" t="n">
         <v>33.41950911397743</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G132" t="n">
         <v>33.76047521747617</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G133" t="n">
         <v>33.6581827769517</v>
@@ -4719,13 +4719,13 @@
         <v>-1</v>
       </c>
       <c r="D134" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G134" t="n">
         <v>33.29286573336395</v>
@@ -4751,13 +4751,13 @@
         <v>-1</v>
       </c>
       <c r="D135" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G135" t="n">
         <v>33.29286272056383</v>
@@ -4783,13 +4783,13 @@
         <v>-1</v>
       </c>
       <c r="D136" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G136" t="n">
         <v>33.23441374882792</v>
@@ -4815,13 +4815,13 @@
         <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G137" t="n">
         <v>33.28312363339857</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G138" t="n">
         <v>33.2685116189503</v>
@@ -4879,13 +4879,13 @@
         <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G139" t="n">
         <v>32.56222238688007</v>
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G140" t="n">
         <v>31.96309673225547</v>
@@ -4943,13 +4943,13 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G141" t="n">
         <v>32.703480841355</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G142" t="n">
         <v>33.14186357871256</v>
@@ -5007,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G143" t="n">
         <v>33.06392936434852</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G144" t="n">
         <v>32.85935097142934</v>
@@ -5071,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G145" t="n">
         <v>32.36738542389468</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G146" t="n">
         <v>32.02000045776367</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>870228.4620690109</v>
+        <v>863430.8891329804</v>
       </c>
       <c r="G147" t="n">
         <v>31.58500003814697</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>8814.867178318042</v>
+        <v>8739.605121275357</v>
       </c>
       <c r="E148" t="n">
-        <v>27164</v>
+        <v>26952</v>
       </c>
       <c r="F148" t="n">
-        <v>869642.0157798501</v>
+        <v>862848.4738117661</v>
       </c>
       <c r="G148" t="n">
         <v>31.6899995803833</v>
       </c>
       <c r="H148" t="n">
-        <v>586.4462891609193</v>
+        <v>582.4153212142945</v>
       </c>
       <c r="I148" t="n">
-        <v>861413.5948906929</v>
+        <v>854691.284011705</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,22 +5199,22 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>78.46249752733118</v>
+        <v>66.21822802660853</v>
       </c>
       <c r="E149" t="n">
-        <v>27440</v>
+        <v>27226</v>
       </c>
       <c r="F149" t="n">
-        <v>864164.0562170098</v>
+        <v>857412.9519964898</v>
       </c>
       <c r="G149" t="n">
         <v>31.48999977111816</v>
       </c>
       <c r="H149" t="n">
-        <v>45.16474396209717</v>
+        <v>45.12695596237183</v>
       </c>
       <c r="I149" t="n">
-        <v>870149.9995714836</v>
+        <v>863364.6709049537</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G150" t="n">
         <v>31.5</v>
       </c>
       <c r="H150" t="n">
-        <v>588.566</v>
+        <v>584.5214000000001</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-6378.565571483574</v>
+        <v>-6330.1923049537</v>
       </c>
     </row>
     <row r="151">
@@ -5263,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G151" t="n">
         <v>31.625</v>
@@ -5295,13 +5295,13 @@
         <v>-1</v>
       </c>
       <c r="D152" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G152" t="n">
         <v>31.70999908447266</v>
@@ -5327,13 +5327,13 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G153" t="n">
         <v>31.83500099182129</v>
@@ -5359,13 +5359,13 @@
         <v>-1</v>
       </c>
       <c r="D154" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G154" t="n">
         <v>30.90999984741211</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G155" t="n">
         <v>31.19999980926514</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G156" t="n">
         <v>30.97500038146973</v>
@@ -5455,13 +5455,13 @@
         <v>-1</v>
       </c>
       <c r="D157" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>863849.8964975274</v>
+        <v>857100.6968280267</v>
       </c>
       <c r="G157" t="n">
         <v>31.7450008392334</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>8744.750593833218</v>
+        <v>8686.51827283754</v>
       </c>
       <c r="E158" t="n">
-        <v>26708</v>
+        <v>26499</v>
       </c>
       <c r="F158" t="n">
-        <v>863267.2330080788</v>
+        <v>856522.0455116833</v>
       </c>
       <c r="G158" t="n">
         <v>31.9950008392334</v>
       </c>
       <c r="H158" t="n">
-        <v>582.6634894485475</v>
+        <v>578.6513163433075</v>
       </c>
       <c r="I158" t="n">
-        <v>855105.1459036942</v>
+        <v>848414.1785551892</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,25 +5519,25 @@
         <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>866154.5038938331</v>
+        <v>859386.1750478375</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>866154.5038938331</v>
+        <v>859386.1750478375</v>
       </c>
       <c r="G159" t="n">
         <v>32.125</v>
       </c>
       <c r="H159" t="n">
-        <v>584.7467</v>
+        <v>580.718225</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2304.607396305772</v>
+        <v>2285.478219810873</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>-1</v>
       </c>
       <c r="D160" t="n">
-        <v>866154.5038938331</v>
+        <v>859386.1750478375</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>866154.5038938331</v>
+        <v>859386.1750478375</v>
       </c>
       <c r="G160" t="n">
         <v>31.84000015258789</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>866154.5038938331</v>
+        <v>859386.1750478375</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>866154.5038938331</v>
+        <v>859386.1750478375</v>
       </c>
       <c r="G161" t="n">
         <v>32.11000061035156</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>8775.320763834363</v>
+        <v>8696.053073035911</v>
       </c>
       <c r="E162" t="n">
-        <v>26274</v>
+        <v>26069</v>
       </c>
       <c r="F162" t="n">
-        <v>865570.4768002114</v>
+        <v>858806.1589842908</v>
       </c>
       <c r="G162" t="n">
         <v>32.61000061035156</v>
       </c>
       <c r="H162" t="n">
-        <v>584.0270936218262</v>
+        <v>580.016063546753</v>
       </c>
       <c r="I162" t="n">
-        <v>857379.1831299987</v>
+        <v>850690.1219748016</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G163" t="n">
         <v>32.4950008392334</v>
       </c>
       <c r="H163" t="n">
-        <v>582.214191230011</v>
+        <v>578.2173061267853</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-4187.745271210442</v>
+        <v>-4156.162402953021</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G164" t="n">
         <v>32.2599983215332</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G165" t="n">
         <v>31.61500072479248</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G166" t="n">
         <v>31.26999950408936</v>
@@ -5775,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G167" t="n">
         <v>31.06999969482422</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G168" t="n">
         <v>31.14000034332275</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G169" t="n">
         <v>31.04500007629395</v>
@@ -5871,13 +5871,13 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G170" t="n">
         <v>30.4399995803833</v>
@@ -5903,13 +5903,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G171" t="n">
         <v>30.69500064849854</v>
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="D172" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G172" t="n">
         <v>30.69499969482422</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G173" t="n">
         <v>31.01500034332275</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G174" t="n">
         <v>31.01499938964844</v>
@@ -6031,13 +6031,13 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G175" t="n">
         <v>30.63500022888184</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G176" t="n">
         <v>30.64499950408936</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G177" t="n">
         <v>31.05500030517578</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>861966.7586226227</v>
+        <v>855230.0126448845</v>
       </c>
       <c r="G178" t="n">
         <v>31.10500049591064</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>8712.810356929034</v>
+        <v>8647.464778730809</v>
       </c>
       <c r="E179" t="n">
-        <v>27112</v>
+        <v>26900</v>
       </c>
       <c r="F179" t="n">
-        <v>861385.2051857255</v>
+        <v>854652.4596479629</v>
       </c>
       <c r="G179" t="n">
         <v>31.44999980926514</v>
       </c>
       <c r="H179" t="n">
-        <v>581.5534368972778</v>
+        <v>577.5529969215394</v>
       </c>
       <c r="I179" t="n">
-        <v>853253.9482656936</v>
+        <v>846582.5478661538</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>851591.0984623475</v>
+        <v>844934.3901488899</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>851591.0984623475</v>
+        <v>844934.3901488899</v>
       </c>
       <c r="G180" t="n">
         <v>31.10999965667725</v>
       </c>
       <c r="H180" t="n">
-        <v>576.0225864151001</v>
+        <v>572.0653944587708</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-10375.66016027518</v>
+        <v>-10295.62249599467</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>851591.0984623475</v>
+        <v>844934.3901488899</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>851591.0984623475</v>
+        <v>844934.3901488899</v>
       </c>
       <c r="G181" t="n">
         <v>30.69499969482422</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>8620.522409889523</v>
+        <v>8540.687846148996</v>
       </c>
       <c r="E182" t="n">
-        <v>27811</v>
+        <v>27594</v>
       </c>
       <c r="F182" t="n">
-        <v>851015.711348984</v>
+        <v>844362.9467935214</v>
       </c>
       <c r="G182" t="n">
         <v>30.28999996185303</v>
       </c>
       <c r="H182" t="n">
-        <v>575.3871133634567</v>
+        <v>571.4433553684235</v>
       </c>
       <c r="I182" t="n">
-        <v>842970.576052458</v>
+        <v>836393.7023027409</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>848216.7812841585</v>
+        <v>841585.3100541449</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>848216.7812841585</v>
+        <v>841585.3100541449</v>
       </c>
       <c r="G183" t="n">
         <v>30.21000003814697</v>
       </c>
       <c r="H183" t="n">
-        <v>574.0521866365433</v>
+        <v>570.1188446315765</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-3374.317178189056</v>
+        <v>-3349.080094744917</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>8571.763309158467</v>
+        <v>8511.482429144939</v>
       </c>
       <c r="E184" t="n">
-        <v>27853</v>
+        <v>27635</v>
       </c>
       <c r="F184" t="n">
-        <v>847643.3883091585</v>
+        <v>841015.8574291449</v>
       </c>
       <c r="G184" t="n">
         <v>30.125</v>
       </c>
       <c r="H184" t="n">
-        <v>573.392975</v>
+        <v>569.452625</v>
       </c>
       <c r="I184" t="n">
-        <v>839645.017975</v>
+        <v>833073.827625</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G185" t="n">
         <v>30.26000022888184</v>
       </c>
       <c r="H185" t="n">
-        <v>575.6490718250275</v>
+        <v>571.6910637950898</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>2611.119328220841</v>
+        <v>2589.587636354379</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>-1</v>
       </c>
       <c r="D186" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G186" t="n">
         <v>30.23999977111816</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G187" t="n">
         <v>30.66499996185303</v>
@@ -6447,13 +6447,13 @@
         <v>-1</v>
       </c>
       <c r="D188" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G188" t="n">
         <v>31.02000045776367</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G189" t="n">
         <v>30.68000030517578</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G190" t="n">
         <v>30.75500011444092</v>
@@ -6540,16 +6540,16 @@
         <v>44379</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D191" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G191" t="n">
         <v>30.91499996185303</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G192" t="n">
         <v>30.97000026702881</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G193" t="n">
         <v>31.17999935150146</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="D194" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>850827.9006123793</v>
+        <v>844174.8976904993</v>
       </c>
       <c r="G194" t="n">
         <v>31.76499938964844</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>8598.518132968755</v>
+        <v>8538.193366313755</v>
       </c>
       <c r="E195" t="n">
-        <v>26698</v>
+        <v>26489</v>
       </c>
       <c r="F195" t="n">
-        <v>850252.95794849</v>
+        <v>843603.9082615621</v>
       </c>
       <c r="G195" t="n">
         <v>31.52499961853027</v>
       </c>
       <c r="H195" t="n">
-        <v>574.9426638893128</v>
+        <v>570.9894289371491</v>
       </c>
       <c r="I195" t="n">
-        <v>842229.3824794105</v>
+        <v>835636.7043241856</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>8598.518132968755</v>
+        <v>8538.193366313755</v>
       </c>
       <c r="E196" t="n">
-        <v>26698</v>
+        <v>26489</v>
       </c>
       <c r="F196" t="n">
-        <v>843578.45794849</v>
+        <v>836981.6582615621</v>
       </c>
       <c r="G196" t="n">
         <v>31.27499961853027</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>842229.3824794105</v>
+        <v>835636.7043241856</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,25 +6735,25 @@
         <v>-1</v>
       </c>
       <c r="D197" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="G197" t="n">
         <v>31.71000003814697</v>
       </c>
       <c r="H197" t="n">
-        <v>577.9061486110687</v>
+        <v>573.9297146062852</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>3786.292390426272</v>
+        <v>3755.556971683283</v>
       </c>
     </row>
     <row r="198">
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="D198" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="G198" t="n">
         <v>31.70499992370605</v>
@@ -6799,13 +6799,13 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="G199" t="n">
         <v>31.25999927520752</v>
@@ -6831,13 +6831,13 @@
         <v>-1</v>
       </c>
       <c r="D200" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="G200" t="n">
         <v>30.76999950408936</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>854614.1930028056</v>
+        <v>847930.4546621826</v>
       </c>
       <c r="G201" t="n">
         <v>30.45499992370605</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>8642.34692550589</v>
+        <v>8567.446621529754</v>
       </c>
       <c r="E202" t="n">
-        <v>28799</v>
+        <v>28574</v>
       </c>
       <c r="F202" t="n">
-        <v>854037.0062072366</v>
+        <v>847357.2307916805</v>
       </c>
       <c r="G202" t="n">
         <v>29.35500049591064</v>
       </c>
       <c r="H202" t="n">
-        <v>577.1867955690384</v>
+        <v>573.2238705020904</v>
       </c>
       <c r="I202" t="n">
-        <v>845971.8460772997</v>
+        <v>839363.0080406528</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>8642.34692550589</v>
+        <v>8567.446621529754</v>
       </c>
       <c r="E203" t="n">
-        <v>28799</v>
+        <v>28574</v>
       </c>
       <c r="F203" t="n">
-        <v>839637.4787423699</v>
+        <v>833070.2035413906</v>
       </c>
       <c r="G203" t="n">
         <v>28.85499954223633</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>845971.8460772997</v>
+        <v>839363.0080406528</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,25 +6959,25 @@
         <v>-1</v>
       </c>
       <c r="D204" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G204" t="n">
         <v>28.91499996185303</v>
       </c>
       <c r="H204" t="n">
-        <v>569.5838503408432</v>
+        <v>565.6803253459931</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>-13818.34602623514</v>
+        <v>-13711.47945601039</v>
       </c>
     </row>
     <row r="205">
@@ -6991,13 +6991,13 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G205" t="n">
         <v>29.5</v>
@@ -7023,13 +7023,13 @@
         <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G206" t="n">
         <v>30.11500072479248</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G207" t="n">
         <v>30.10000038146973</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G208" t="n">
         <v>29.82999992370605</v>
@@ -7119,13 +7119,13 @@
         <v>-1</v>
       </c>
       <c r="D209" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G209" t="n">
         <v>30.01000022888184</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G210" t="n">
         <v>29.98999977111816</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G211" t="n">
         <v>30.375</v>
@@ -7215,13 +7215,13 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G212" t="n">
         <v>30.15000057220459</v>
@@ -7247,13 +7247,13 @@
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G213" t="n">
         <v>30.28999996185303</v>
@@ -7279,13 +7279,13 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G214" t="n">
         <v>30.28499984741211</v>
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G215" t="n">
         <v>30.625</v>
@@ -7343,13 +7343,13 @@
         <v>-1</v>
       </c>
       <c r="D216" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>840795.8469765704</v>
+        <v>834218.9752061722</v>
       </c>
       <c r="G216" t="n">
         <v>30.61999988555908</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>8508.444641986773</v>
+        <v>8431.820769760925</v>
       </c>
       <c r="E217" t="n">
-        <v>26886</v>
+        <v>26676</v>
       </c>
       <c r="F217" t="n">
-        <v>840226.8659238013</v>
+        <v>833653.8919634559</v>
       </c>
       <c r="G217" t="n">
         <v>30.9350004196167</v>
       </c>
       <c r="H217" t="n">
-        <v>568.9810527690887</v>
+        <v>565.0832427162171</v>
       </c>
       <c r="I217" t="n">
-        <v>832287.4023345837</v>
+        <v>825787.1544364113</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,25 +7407,25 @@
         <v>-1</v>
       </c>
       <c r="D218" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G218" t="n">
         <v>31.27500057220459</v>
       </c>
       <c r="H218" t="n">
-        <v>574.4657992305756</v>
+        <v>570.5251491584778</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>7997.797250478296</v>
+        <v>7934.235678559868</v>
       </c>
     </row>
     <row r="219">
@@ -7439,13 +7439,13 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G219" t="n">
         <v>31.375</v>
@@ -7471,13 +7471,13 @@
         <v>-1</v>
       </c>
       <c r="D220" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G220" t="n">
         <v>31.18499946594238</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G221" t="n">
         <v>31.14499950408936</v>
@@ -7535,13 +7535,13 @@
         <v>-1</v>
       </c>
       <c r="D222" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G222" t="n">
         <v>31.51500034332275</v>
@@ -7567,13 +7567,13 @@
         <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G223" t="n">
         <v>31.625</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G224" t="n">
         <v>32.21500015258789</v>
@@ -7631,13 +7631,13 @@
         <v>-1</v>
       </c>
       <c r="D225" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G225" t="n">
         <v>32.73000144958496</v>
@@ -7663,13 +7663,13 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>848793.6442270487</v>
+        <v>842153.2108847321</v>
       </c>
       <c r="G226" t="n">
         <v>33.27000045776367</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>8594.946629191829</v>
+        <v>8502.880205239127</v>
       </c>
       <c r="E227" t="n">
-        <v>25146</v>
+        <v>24950</v>
       </c>
       <c r="F227" t="n">
-        <v>848219.9192434802</v>
+        <v>841583.4125653161</v>
       </c>
       <c r="G227" t="n">
         <v>33.39000129699707</v>
       </c>
       <c r="H227" t="n">
-        <v>573.7249835685731</v>
+        <v>569.7983194160462</v>
       </c>
       <c r="I227" t="n">
-        <v>840198.6975978569</v>
+        <v>833650.3306794929</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,22 +7727,22 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>75.20186136269675</v>
+        <v>49.90547495195705</v>
       </c>
       <c r="E228" t="n">
-        <v>25400</v>
+        <v>25202</v>
       </c>
       <c r="F228" t="n">
-        <v>847546.196047764</v>
+        <v>840914.6297066719</v>
       </c>
       <c r="G228" t="n">
         <v>33.36499977111816</v>
       </c>
       <c r="H228" t="n">
-        <v>45.03482596511842</v>
+        <v>44.99478796539307</v>
       </c>
       <c r="I228" t="n">
-        <v>848718.4423656859</v>
+        <v>842103.3054097801</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>75.20186136269675</v>
+        <v>49.90547495195705</v>
       </c>
       <c r="E229" t="n">
-        <v>25400</v>
+        <v>25202</v>
       </c>
       <c r="F229" t="n">
-        <v>845768.2037992289</v>
+        <v>839150.497397712</v>
       </c>
       <c r="G229" t="n">
         <v>33.29500007629395</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>848718.4423656859</v>
+        <v>842103.3054097801</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,22 +7791,22 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>75.20186136269675</v>
+        <v>3.910475714896499</v>
       </c>
       <c r="E230" t="n">
-        <v>25400</v>
+        <v>25203</v>
       </c>
       <c r="F230" t="n">
-        <v>836370.1824827006</v>
+        <v>829812.6662473519</v>
       </c>
       <c r="G230" t="n">
         <v>32.92499923706055</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I230" t="n">
-        <v>848718.4423656859</v>
+        <v>842149.3004090171</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>75.20186136269675</v>
+        <v>3.910475714896499</v>
       </c>
       <c r="E231" t="n">
-        <v>25400</v>
+        <v>25203</v>
       </c>
       <c r="F231" t="n">
-        <v>835989.1979856302</v>
+        <v>829434.6366300423</v>
       </c>
       <c r="G231" t="n">
         <v>32.90999984741211</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>848718.4423656859</v>
+        <v>842149.3004090171</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G232" t="n">
         <v>32.79000091552734</v>
       </c>
       <c r="H232" t="n">
-        <v>569.6696139526367</v>
+        <v>565.7938358444214</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>-16422.08872524404</v>
+        <v>-16308.70117082587</v>
       </c>
     </row>
     <row r="233">
@@ -7887,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G233" t="n">
         <v>33.05999946594238</v>
@@ -7919,13 +7919,13 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G234" t="n">
         <v>33.51499938964844</v>
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G235" t="n">
         <v>33.52499961853027</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G236" t="n">
         <v>33.33500099182129</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G237" t="n">
         <v>33.38999938964844</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G238" t="n">
         <v>32.92000007629395</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G239" t="n">
         <v>32.46000099182129</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G240" t="n">
         <v>32.89999961853027</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G241" t="n">
         <v>32.96999931335449</v>
@@ -8175,13 +8175,13 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G242" t="n">
         <v>33.02500152587891</v>
@@ -8207,13 +8207,13 @@
         <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G243" t="n">
         <v>33.07999992370605</v>
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G244" t="n">
         <v>32.86499977111816</v>
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G245" t="n">
         <v>32.39999961853027</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G246" t="n">
         <v>32.33499908447266</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>832371.5555018046</v>
+        <v>825844.5097139062</v>
       </c>
       <c r="G247" t="n">
         <v>31.98999977111816</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>8417.723814817266</v>
+        <v>8355.554687990685</v>
       </c>
       <c r="E248" t="n">
-        <v>25488</v>
+        <v>25288</v>
       </c>
       <c r="F248" t="n">
-        <v>831807.5715931376</v>
+        <v>825284.4024052758</v>
       </c>
       <c r="G248" t="n">
         <v>32.30500030517578</v>
       </c>
       <c r="H248" t="n">
-        <v>563.9839086669922</v>
+        <v>560.1073086303711</v>
       </c>
       <c r="I248" t="n">
-        <v>823953.8316869873</v>
+        <v>817488.9550259155</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>827295.276285084</v>
+        <v>820806.965425126</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>827295.276285084</v>
+        <v>820806.965425126</v>
       </c>
       <c r="G249" t="n">
         <v>32.14999866485596</v>
       </c>
       <c r="H249" t="n">
-        <v>561.6134995819092</v>
+        <v>557.7554997421265</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>-5076.279216720606</v>
+        <v>-5037.544288780191</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>827295.276285084</v>
+        <v>820806.965425126</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>827295.276285084</v>
+        <v>820806.965425126</v>
       </c>
       <c r="G250" t="n">
         <v>32.27499961853027</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>827295.276285084</v>
+        <v>820806.965425126</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>827295.276285084</v>
+        <v>820806.965425126</v>
       </c>
       <c r="G251" t="n">
         <v>32.17999935150146</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>8352.80046920872</v>
+        <v>8295.425675867598</v>
       </c>
       <c r="E252" t="n">
-        <v>25212</v>
+        <v>25014</v>
       </c>
       <c r="F252" t="n">
-        <v>826734.2973869334</v>
+        <v>820249.8427748666</v>
       </c>
       <c r="G252" t="n">
         <v>32.45999908447266</v>
       </c>
       <c r="H252" t="n">
-        <v>560.9788981506348</v>
+        <v>557.1226502593994</v>
       </c>
       <c r="I252" t="n">
-        <v>818942.4758158752</v>
+        <v>812511.5397492584</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>810425.2970183932</v>
+        <v>804068.3742155035</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>810425.2970183932</v>
+        <v>804068.3742155035</v>
       </c>
       <c r="G253" t="n">
         <v>31.83500003814697</v>
       </c>
       <c r="H253" t="n">
-        <v>551.5244125770569</v>
+        <v>547.742414572525</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-16869.97926669079</v>
+        <v>-16738.59120962257</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>-1</v>
       </c>
       <c r="D254" t="n">
-        <v>810425.2970183932</v>
+        <v>804068.3742155035</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>810425.2970183932</v>
+        <v>804068.3742155035</v>
       </c>
       <c r="G254" t="n">
         <v>31.60499954223633</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>8186.555340214007</v>
+        <v>8140.076525537635</v>
       </c>
       <c r="E255" t="n">
-        <v>25932</v>
+        <v>25728</v>
       </c>
       <c r="F255" t="n">
-        <v>809874.3343509868</v>
+        <v>803521.1955440923</v>
       </c>
       <c r="G255" t="n">
         <v>30.91499996185303</v>
       </c>
       <c r="H255" t="n">
-        <v>550.9626674064637</v>
+        <v>547.1786714111328</v>
       </c>
       <c r="I255" t="n">
-        <v>802238.7416781791</v>
+        <v>795928.2976899658</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
